--- a/metaData/template_vignettes_codebook.xlsx
+++ b/metaData/template_vignettes_codebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Box Sync\WB Work\WB Github Repo\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Documents\GitHub\SDI-Health\metaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BBE1A6F9-A925-461B-912D-92A13E0B324C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F0DF234-FDB2-452D-8DE3-4B28EC5D4897}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21143" windowWidth="7485" windowHeight="21143" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2994,9 +2994,6 @@
     <t>skip_eclampsia</t>
   </si>
   <si>
-    <t>Did not do eclampsia vignette</t>
-  </si>
-  <si>
     <t>diag_sevpneu</t>
   </si>
   <si>
@@ -4123,6 +4120,9 @@
   </si>
   <si>
     <t>Did not do malaria+anemia vignette</t>
+  </si>
+  <si>
+    <t>Did not do pre-eclampsia vignette</t>
   </si>
 </sst>
 </file>
@@ -4707,8 +4707,8 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
@@ -4862,10 +4862,10 @@
     </row>
     <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
+        <v>987</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>988</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>989</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="13"/>
@@ -4885,7 +4885,7 @@
         <v>969</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>582</v>
@@ -4907,7 +4907,7 @@
         <v>971</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>582</v>
@@ -4918,7 +4918,7 @@
         <v>972</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>582</v>
@@ -4929,7 +4929,7 @@
         <v>973</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>582</v>
@@ -4940,7 +4940,7 @@
         <v>974</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>582</v>
@@ -4951,7 +4951,7 @@
         <v>975</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>582</v>
@@ -4984,7 +4984,7 @@
         <v>979</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>980</v>
+        <v>1356</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>582</v>
@@ -5000,18 +5000,18 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="17" t="s">
+        <v>983</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>984</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
+        <v>985</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>986</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>987</v>
       </c>
     </row>
   </sheetData>
@@ -5059,10 +5059,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
+        <v>989</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>990</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>991</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>587</v>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>992</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>993</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>587</v>
@@ -5081,7 +5081,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>88</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
+        <v>994</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>995</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>996</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>587</v>
@@ -5103,10 +5103,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>997</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>998</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>587</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
+        <v>998</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>999</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>1000</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>587</v>
@@ -5125,10 +5125,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="20" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>1001</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>1002</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>587</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>1003</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>1004</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>587</v>
@@ -5158,10 +5158,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>1005</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>1006</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>587</v>
@@ -5169,10 +5169,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>1007</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1008</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>587</v>
@@ -5180,10 +5180,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>1009</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>1010</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>587</v>
@@ -5194,7 +5194,7 @@
         <v>884</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>587</v>
@@ -5238,7 +5238,7 @@
         <v>556</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>587</v>
@@ -5246,10 +5246,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>1013</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>1014</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>587</v>
@@ -5260,7 +5260,7 @@
         <v>450</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>587</v>
@@ -5271,7 +5271,7 @@
         <v>770</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>587</v>
@@ -5279,10 +5279,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>1017</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>1018</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>587</v>
@@ -5293,7 +5293,7 @@
         <v>451</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>587</v>
@@ -5304,7 +5304,7 @@
         <v>470</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>587</v>
@@ -5312,10 +5312,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>1021</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>1022</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>587</v>
@@ -5323,10 +5323,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>1023</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>1024</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>587</v>
@@ -5335,10 +5335,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>1025</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>1026</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>587</v>
@@ -5346,10 +5346,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>1027</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>1028</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>587</v>
@@ -5357,10 +5357,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>1029</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>1030</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>587</v>
@@ -5368,10 +5368,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>1031</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>1032</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>587</v>
@@ -5382,7 +5382,7 @@
         <v>546</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>587</v>
@@ -5390,10 +5390,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="20" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>1034</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>1035</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>587</v>
@@ -5401,10 +5401,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>1036</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>1037</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>587</v>
@@ -5412,10 +5412,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>1038</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>1039</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>587</v>
@@ -5434,10 +5434,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>1040</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>1041</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>587</v>
@@ -5445,10 +5445,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>1042</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>1043</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>587</v>
@@ -5478,10 +5478,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="20" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>1044</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>1045</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>587</v>
@@ -5489,10 +5489,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="20" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>1046</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>1047</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>587</v>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>1048</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>1049</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>587</v>
@@ -5514,7 +5514,7 @@
         <v>367</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>587</v>
@@ -5522,10 +5522,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>1051</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>1052</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>587</v>
@@ -5533,10 +5533,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="20" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>1053</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>1054</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>587</v>
@@ -5544,10 +5544,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>1055</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>1056</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>587</v>
@@ -5555,10 +5555,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="20" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>1057</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>1058</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>587</v>
@@ -5566,10 +5566,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B48" s="21" t="s">
         <v>1059</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>1060</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>587</v>
@@ -5577,10 +5577,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="20" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B49" s="21" t="s">
         <v>1061</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>1062</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>587</v>
@@ -5591,7 +5591,7 @@
         <v>773</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>587</v>
@@ -5599,10 +5599,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="20" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>1064</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>1065</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>587</v>
@@ -5610,10 +5610,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>1066</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>1067</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>587</v>
@@ -5621,10 +5621,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="20" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B53" s="21" t="s">
         <v>1068</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>1069</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>587</v>
@@ -5643,10 +5643,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="20" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>1070</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>1071</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>587</v>
@@ -5654,10 +5654,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B56" s="21" t="s">
         <v>1072</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>1073</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>587</v>
@@ -5665,10 +5665,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B57" s="21" t="s">
         <v>1074</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>1075</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>587</v>
@@ -5687,10 +5687,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="20" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>1076</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>1077</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>587</v>
@@ -5701,7 +5701,7 @@
         <v>477</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>587</v>
@@ -5709,10 +5709,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="20" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>1079</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>1080</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>587</v>
@@ -5720,10 +5720,10 @@
     </row>
     <row r="62" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A62" s="20" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B62" s="21" t="s">
         <v>1081</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>1082</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>587</v>
@@ -5731,10 +5731,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B63" s="21" t="s">
         <v>1083</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>1084</v>
       </c>
       <c r="D63" s="23" t="s">
         <v>587</v>
@@ -5742,10 +5742,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B64" s="21" t="s">
         <v>1085</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>1086</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>587</v>
@@ -5753,10 +5753,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="20" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B65" s="21" t="s">
         <v>1087</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>1088</v>
       </c>
       <c r="D65" s="23" t="s">
         <v>587</v>
@@ -5841,10 +5841,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="20" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B73" s="21" t="s">
         <v>1089</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>1090</v>
       </c>
       <c r="D73" s="23" t="s">
         <v>587</v>
@@ -5852,10 +5852,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="20" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>1091</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>1092</v>
       </c>
       <c r="D74" s="23" t="s">
         <v>587</v>
@@ -5863,10 +5863,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="20" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B75" s="21" t="s">
         <v>1093</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>1094</v>
       </c>
       <c r="D75" s="23" t="s">
         <v>587</v>
@@ -5877,7 +5877,7 @@
         <v>326</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D76" s="23" t="s">
         <v>587</v>
@@ -5885,10 +5885,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="20" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B77" s="21" t="s">
         <v>1096</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>1097</v>
       </c>
       <c r="D77" s="23" t="s">
         <v>587</v>
@@ -5896,10 +5896,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="20" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B78" s="21" t="s">
         <v>1098</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>1099</v>
       </c>
       <c r="D78" s="23" t="s">
         <v>587</v>
@@ -5907,10 +5907,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="20" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B79" s="21" t="s">
         <v>1100</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>1101</v>
       </c>
       <c r="D79" s="23" t="s">
         <v>587</v>
@@ -5918,10 +5918,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="20" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B80" s="21" t="s">
         <v>1102</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>1103</v>
       </c>
       <c r="D80" s="23" t="s">
         <v>587</v>
@@ -5929,10 +5929,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="20" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B81" s="21" t="s">
         <v>1104</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>1105</v>
       </c>
       <c r="D81" s="23" t="s">
         <v>587</v>
@@ -5951,10 +5951,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="20" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B83" s="21" t="s">
         <v>1106</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>1107</v>
       </c>
       <c r="D83" s="23" t="s">
         <v>587</v>
@@ -5962,10 +5962,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="20" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B84" s="21" t="s">
         <v>1108</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>1109</v>
       </c>
       <c r="D84" s="23" t="s">
         <v>587</v>
@@ -5984,10 +5984,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="20" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B86" s="21" t="s">
         <v>1110</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>1111</v>
       </c>
       <c r="D86" s="23" t="s">
         <v>587</v>
@@ -5995,10 +5995,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="20" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B87" s="21" t="s">
         <v>1112</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>1113</v>
       </c>
       <c r="D87" s="23" t="s">
         <v>587</v>
@@ -6006,10 +6006,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="20" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B88" s="21" t="s">
         <v>1114</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>1115</v>
       </c>
       <c r="D88" s="23" t="s">
         <v>587</v>
@@ -6017,10 +6017,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B89" s="21" t="s">
         <v>1116</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>1117</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>587</v>
@@ -6028,10 +6028,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="20" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B90" s="21" t="s">
         <v>1118</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>1119</v>
       </c>
       <c r="D90" s="23" t="s">
         <v>587</v>
@@ -6042,7 +6042,7 @@
         <v>373</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>587</v>
@@ -6061,10 +6061,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="20" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B93" s="21" t="s">
         <v>1121</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>1122</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>587</v>
@@ -6072,10 +6072,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="20" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B94" s="21" t="s">
         <v>1123</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>1124</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>587</v>
@@ -6083,10 +6083,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="20" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B95" s="21" t="s">
         <v>1125</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>1126</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>587</v>
@@ -6097,7 +6097,7 @@
         <v>343</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>587</v>
@@ -6105,10 +6105,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="20" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B97" s="21" t="s">
         <v>1128</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>1129</v>
       </c>
       <c r="D97" s="23" t="s">
         <v>587</v>
@@ -6116,10 +6116,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B98" s="21" t="s">
         <v>1130</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>1131</v>
       </c>
       <c r="D98" s="23" t="s">
         <v>587</v>
@@ -6138,10 +6138,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="20" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B100" s="21" t="s">
         <v>1132</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>1133</v>
       </c>
       <c r="D100" s="23" t="s">
         <v>587</v>
@@ -6152,7 +6152,7 @@
         <v>630</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D101" s="23" t="s">
         <v>587</v>
@@ -6160,10 +6160,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="20" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B102" s="21" t="s">
         <v>1135</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>1136</v>
       </c>
       <c r="D102" s="23" t="s">
         <v>587</v>
@@ -6171,10 +6171,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B103" s="21" t="s">
         <v>1137</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>1138</v>
       </c>
       <c r="D103" s="23" t="s">
         <v>587</v>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B104" s="21" t="s">
         <v>1139</v>
-      </c>
-      <c r="B104" s="21" t="s">
-        <v>1140</v>
       </c>
       <c r="D104" s="23" t="s">
         <v>587</v>
@@ -6259,10 +6259,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B111" s="21" t="s">
         <v>1141</v>
-      </c>
-      <c r="B111" s="21" t="s">
-        <v>1142</v>
       </c>
       <c r="D111" s="23" t="s">
         <v>587</v>
@@ -6270,10 +6270,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="20" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B112" s="21" t="s">
         <v>1143</v>
-      </c>
-      <c r="B112" s="21" t="s">
-        <v>1144</v>
       </c>
       <c r="D112" s="23" t="s">
         <v>587</v>
@@ -6281,10 +6281,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="20" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B113" s="21" t="s">
         <v>1145</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>1146</v>
       </c>
       <c r="D113" s="23" t="s">
         <v>587</v>
@@ -6292,10 +6292,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="20" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B114" s="21" t="s">
         <v>1147</v>
-      </c>
-      <c r="B114" s="21" t="s">
-        <v>1148</v>
       </c>
       <c r="D114" s="23" t="s">
         <v>587</v>
@@ -6303,10 +6303,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="20" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B115" s="21" t="s">
         <v>1149</v>
-      </c>
-      <c r="B115" s="21" t="s">
-        <v>1150</v>
       </c>
       <c r="D115" s="23" t="s">
         <v>587</v>
@@ -6314,10 +6314,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="20" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B116" s="21" t="s">
         <v>1151</v>
-      </c>
-      <c r="B116" s="21" t="s">
-        <v>1152</v>
       </c>
       <c r="D116" s="23" t="s">
         <v>587</v>
@@ -6325,10 +6325,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="20" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B117" s="21" t="s">
         <v>1153</v>
-      </c>
-      <c r="B117" s="21" t="s">
-        <v>1154</v>
       </c>
       <c r="D117" s="23" t="s">
         <v>587</v>
@@ -6336,10 +6336,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="20" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B118" s="21" t="s">
         <v>1155</v>
-      </c>
-      <c r="B118" s="21" t="s">
-        <v>1156</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>587</v>
@@ -6350,7 +6350,7 @@
         <v>362</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D119" s="23" t="s">
         <v>587</v>
@@ -6358,10 +6358,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="20" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B120" s="21" t="s">
         <v>1158</v>
-      </c>
-      <c r="B120" s="21" t="s">
-        <v>1159</v>
       </c>
       <c r="D120" s="23" t="s">
         <v>587</v>
@@ -6369,10 +6369,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="20" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B121" s="21" t="s">
         <v>1160</v>
-      </c>
-      <c r="B121" s="21" t="s">
-        <v>1161</v>
       </c>
       <c r="D121" s="23" t="s">
         <v>587</v>
@@ -6380,10 +6380,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B122" s="21" t="s">
         <v>1162</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>1163</v>
       </c>
       <c r="D122" s="23" t="s">
         <v>587</v>
@@ -6394,7 +6394,7 @@
         <v>333</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D123" s="23" t="s">
         <v>587</v>
@@ -6413,10 +6413,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="20" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B125" s="21" t="s">
         <v>1165</v>
-      </c>
-      <c r="B125" s="21" t="s">
-        <v>1166</v>
       </c>
       <c r="D125" s="23" t="s">
         <v>587</v>
@@ -6424,10 +6424,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="20" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B126" s="21" t="s">
         <v>1167</v>
-      </c>
-      <c r="B126" s="21" t="s">
-        <v>1168</v>
       </c>
       <c r="D126" s="23" t="s">
         <v>587</v>
@@ -6435,10 +6435,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="20" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B127" s="21" t="s">
         <v>1169</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>1170</v>
       </c>
       <c r="D127" s="23" t="s">
         <v>587</v>
@@ -6446,10 +6446,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B128" s="21" t="s">
         <v>1171</v>
-      </c>
-      <c r="B128" s="21" t="s">
-        <v>1172</v>
       </c>
       <c r="D128" s="23" t="s">
         <v>587</v>
@@ -6457,10 +6457,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="20" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B129" s="21" t="s">
         <v>1173</v>
-      </c>
-      <c r="B129" s="21" t="s">
-        <v>1174</v>
       </c>
       <c r="D129" s="23" t="s">
         <v>587</v>
@@ -6468,10 +6468,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="20" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B130" s="21" t="s">
         <v>1175</v>
-      </c>
-      <c r="B130" s="21" t="s">
-        <v>1176</v>
       </c>
       <c r="D130" s="23" t="s">
         <v>587</v>
@@ -6479,10 +6479,10 @@
     </row>
     <row r="131" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A131" s="20" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B131" s="21" t="s">
         <v>1177</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>1178</v>
       </c>
       <c r="D131" s="23" t="s">
         <v>587</v>
@@ -6490,10 +6490,10 @@
     </row>
     <row r="132" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A132" s="20" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B132" s="21" t="s">
         <v>1179</v>
-      </c>
-      <c r="B132" s="21" t="s">
-        <v>1180</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>587</v>
@@ -6501,10 +6501,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="20" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B133" s="21" t="s">
         <v>1181</v>
-      </c>
-      <c r="B133" s="21" t="s">
-        <v>1182</v>
       </c>
       <c r="D133" s="23" t="s">
         <v>587</v>
@@ -6512,10 +6512,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="20" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B134" s="21" t="s">
         <v>1183</v>
-      </c>
-      <c r="B134" s="21" t="s">
-        <v>1184</v>
       </c>
       <c r="D134" s="23" t="s">
         <v>587</v>
@@ -6523,10 +6523,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="20" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B135" s="21" t="s">
         <v>1185</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>1186</v>
       </c>
       <c r="D135" s="23" t="s">
         <v>587</v>
@@ -6537,7 +6537,7 @@
         <v>487</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D136" s="23" t="s">
         <v>587</v>
@@ -6545,10 +6545,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="20" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B137" s="21" t="s">
         <v>1188</v>
-      </c>
-      <c r="B137" s="21" t="s">
-        <v>1189</v>
       </c>
       <c r="D137" s="23" t="s">
         <v>587</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="20" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B138" s="21" t="s">
         <v>1190</v>
-      </c>
-      <c r="B138" s="21" t="s">
-        <v>1191</v>
       </c>
       <c r="D138" s="23" t="s">
         <v>587</v>
@@ -6567,10 +6567,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="20" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B139" s="21" t="s">
         <v>1192</v>
-      </c>
-      <c r="B139" s="21" t="s">
-        <v>1193</v>
       </c>
       <c r="D139" s="23" t="s">
         <v>587</v>
@@ -6578,10 +6578,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="20" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B140" s="21" t="s">
         <v>1194</v>
-      </c>
-      <c r="B140" s="21" t="s">
-        <v>1195</v>
       </c>
       <c r="D140" s="23" t="s">
         <v>587</v>
@@ -6589,10 +6589,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="20" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B141" s="21" t="s">
         <v>1196</v>
-      </c>
-      <c r="B141" s="21" t="s">
-        <v>1197</v>
       </c>
       <c r="D141" s="23" t="s">
         <v>587</v>
@@ -6600,10 +6600,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="20" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B142" s="21" t="s">
         <v>1198</v>
-      </c>
-      <c r="B142" s="21" t="s">
-        <v>1199</v>
       </c>
       <c r="D142" s="23" t="s">
         <v>587</v>
@@ -6611,10 +6611,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="20" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B143" s="21" t="s">
         <v>1200</v>
-      </c>
-      <c r="B143" s="21" t="s">
-        <v>1201</v>
       </c>
       <c r="D143" s="23" t="s">
         <v>587</v>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="20" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B144" s="21" t="s">
         <v>1202</v>
-      </c>
-      <c r="B144" s="21" t="s">
-        <v>1203</v>
       </c>
       <c r="D144" s="23" t="s">
         <v>587</v>
@@ -6633,10 +6633,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="20" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B145" s="21" t="s">
         <v>1204</v>
-      </c>
-      <c r="B145" s="21" t="s">
-        <v>1205</v>
       </c>
       <c r="D145" s="23" t="s">
         <v>587</v>
@@ -6644,10 +6644,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="20" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B146" s="21" t="s">
         <v>1206</v>
-      </c>
-      <c r="B146" s="21" t="s">
-        <v>1207</v>
       </c>
       <c r="D146" s="23" t="s">
         <v>587</v>
@@ -6655,10 +6655,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="20" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B147" s="21" t="s">
         <v>1208</v>
-      </c>
-      <c r="B147" s="21" t="s">
-        <v>1209</v>
       </c>
       <c r="D147" s="23" t="s">
         <v>587</v>
@@ -6666,10 +6666,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="20" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B148" s="21" t="s">
         <v>1210</v>
-      </c>
-      <c r="B148" s="21" t="s">
-        <v>1211</v>
       </c>
       <c r="D148" s="23" t="s">
         <v>587</v>
@@ -6680,7 +6680,7 @@
         <v>338</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D149" s="23" t="s">
         <v>587</v>
@@ -6688,10 +6688,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="20" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B150" s="21" t="s">
         <v>1213</v>
-      </c>
-      <c r="B150" s="21" t="s">
-        <v>1214</v>
       </c>
       <c r="D150" s="23" t="s">
         <v>587</v>
@@ -6699,10 +6699,10 @@
     </row>
     <row r="151" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A151" s="20" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B151" s="21" t="s">
         <v>1215</v>
-      </c>
-      <c r="B151" s="21" t="s">
-        <v>1216</v>
       </c>
       <c r="D151" s="23" t="s">
         <v>587</v>
@@ -6710,10 +6710,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="20" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B152" s="21" t="s">
         <v>1217</v>
-      </c>
-      <c r="B152" s="21" t="s">
-        <v>1218</v>
       </c>
       <c r="D152" s="23" t="s">
         <v>587</v>
@@ -6721,10 +6721,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="20" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B153" s="21" t="s">
         <v>1219</v>
-      </c>
-      <c r="B153" s="21" t="s">
-        <v>1220</v>
       </c>
       <c r="D153" s="23" t="s">
         <v>587</v>
@@ -6732,10 +6732,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="20" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B154" s="21" t="s">
         <v>1221</v>
-      </c>
-      <c r="B154" s="21" t="s">
-        <v>1222</v>
       </c>
       <c r="D154" s="23" t="s">
         <v>587</v>
@@ -6743,10 +6743,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="20" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B155" s="21" t="s">
         <v>1223</v>
-      </c>
-      <c r="B155" s="21" t="s">
-        <v>1224</v>
       </c>
       <c r="D155" s="23" t="s">
         <v>587</v>
@@ -6754,10 +6754,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="20" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B156" s="21" t="s">
         <v>1225</v>
-      </c>
-      <c r="B156" s="21" t="s">
-        <v>1226</v>
       </c>
       <c r="D156" s="23" t="s">
         <v>587</v>
@@ -6765,10 +6765,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="20" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B157" s="21" t="s">
         <v>1227</v>
-      </c>
-      <c r="B157" s="21" t="s">
-        <v>1228</v>
       </c>
       <c r="D157" s="23" t="s">
         <v>587</v>
@@ -7304,10 +7304,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>1229</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>1230</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>587</v>
@@ -7315,10 +7315,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>1231</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1232</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>587</v>
@@ -7326,10 +7326,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>1233</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>1234</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>587</v>
@@ -7340,7 +7340,7 @@
         <v>531</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>587</v>
@@ -7348,10 +7348,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>1236</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1237</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>587</v>
@@ -7373,7 +7373,7 @@
         <v>571</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>587</v>
@@ -7392,10 +7392,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>587</v>
@@ -7403,10 +7403,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>587</v>
@@ -7425,10 +7425,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>1040</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>1041</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>587</v>
@@ -7436,10 +7436,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>587</v>
@@ -7447,10 +7447,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>1242</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>1243</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>587</v>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>1244</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>1245</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>587</v>
@@ -7480,10 +7480,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="20" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>1246</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>1247</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>587</v>
@@ -7494,7 +7494,7 @@
         <v>543</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>587</v>
@@ -7502,10 +7502,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="20" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>1249</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>1250</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>587</v>
@@ -7513,10 +7513,10 @@
     </row>
     <row r="21" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>1251</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>1252</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>587</v>
@@ -7524,10 +7524,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>1253</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>1254</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>587</v>
@@ -7535,10 +7535,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>1255</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>1256</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>587</v>
@@ -7546,10 +7546,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="20" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>1257</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>1258</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>587</v>
@@ -7557,10 +7557,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>1259</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>1260</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>587</v>
@@ -7568,10 +7568,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>1261</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>1262</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>587</v>
@@ -7591,10 +7591,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>1263</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>1264</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>587</v>
@@ -7613,10 +7613,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>1265</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>1266</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>587</v>
@@ -7657,10 +7657,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>587</v>
@@ -7668,10 +7668,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>587</v>
@@ -7701,10 +7701,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="20" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>587</v>
@@ -7712,10 +7712,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>587</v>
@@ -7723,10 +7723,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="20" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>1271</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>1272</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>587</v>
@@ -7734,10 +7734,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="20" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>1273</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>1274</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>587</v>
@@ -7748,7 +7748,7 @@
         <v>388</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>587</v>
@@ -7756,10 +7756,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="20" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>1276</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>1277</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>587</v>
@@ -7767,10 +7767,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>1278</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>1279</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>587</v>
@@ -7778,10 +7778,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="20" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>1280</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>1281</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>587</v>
@@ -7789,10 +7789,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>1282</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>1283</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>587</v>
@@ -7825,7 +7825,7 @@
         <v>373</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>587</v>
@@ -7833,10 +7833,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B50" s="21" t="s">
         <v>1285</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>1286</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>587</v>
@@ -7844,10 +7844,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="20" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>1287</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>1288</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>587</v>
@@ -7877,10 +7877,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B54" s="21" t="s">
         <v>1289</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>1290</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>587</v>
@@ -7888,10 +7888,10 @@
     </row>
     <row r="55" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A55" s="20" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>1291</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>1292</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>587</v>
@@ -7899,10 +7899,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="20" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B56" s="21" t="s">
         <v>1293</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>1294</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>587</v>
@@ -7910,10 +7910,10 @@
     </row>
     <row r="57" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A57" s="20" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B57" s="21" t="s">
         <v>1295</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>1296</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>587</v>
@@ -7921,10 +7921,10 @@
     </row>
     <row r="58" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A58" s="20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B58" s="21" t="s">
         <v>1297</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>1298</v>
       </c>
       <c r="D58" s="23" t="s">
         <v>587</v>
@@ -7932,10 +7932,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="20" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>1299</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>1300</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>587</v>
@@ -7943,10 +7943,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="20" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>1301</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>1302</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>587</v>
@@ -7957,7 +7957,7 @@
         <v>376</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>587</v>
@@ -7965,10 +7965,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="20" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B62" s="21" t="s">
         <v>1304</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>1305</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>587</v>
@@ -7976,10 +7976,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="20" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B63" s="21" t="s">
         <v>1306</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>1307</v>
       </c>
       <c r="D63" s="23" t="s">
         <v>587</v>
@@ -7987,10 +7987,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="20" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B64" s="21" t="s">
         <v>1308</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>1309</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>587</v>
@@ -7998,10 +7998,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="20" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B65" s="21" t="s">
         <v>1310</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>1311</v>
       </c>
       <c r="D65" s="23" t="s">
         <v>587</v>
@@ -8009,10 +8009,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="20" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>1312</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>1313</v>
       </c>
       <c r="D66" s="23" t="s">
         <v>587</v>
@@ -8031,10 +8031,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="20" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B68" s="21" t="s">
         <v>1314</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>1315</v>
       </c>
       <c r="D68" s="23" t="s">
         <v>587</v>
@@ -8042,10 +8042,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="20" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B69" s="21" t="s">
         <v>1316</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>1317</v>
       </c>
       <c r="D69" s="23" t="s">
         <v>587</v>
@@ -8056,7 +8056,7 @@
         <v>385</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>587</v>
@@ -8064,10 +8064,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="20" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B71" s="21" t="s">
         <v>1319</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>1320</v>
       </c>
       <c r="D71" s="23" t="s">
         <v>587</v>
@@ -8075,10 +8075,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="20" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>1321</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>1322</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>587</v>
@@ -8086,10 +8086,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="20" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D73" s="23" t="s">
         <v>587</v>
@@ -8097,10 +8097,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="20" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D74" s="23" t="s">
         <v>587</v>
@@ -8108,10 +8108,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="20" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D75" s="23" t="s">
         <v>587</v>
@@ -8152,10 +8152,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="20" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B79" s="21" t="s">
         <v>1326</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>1327</v>
       </c>
       <c r="D79" s="23" t="s">
         <v>587</v>
@@ -8163,10 +8163,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="20" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D80" s="23" t="s">
         <v>587</v>
@@ -8174,10 +8174,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="20" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B81" s="21" t="s">
         <v>1329</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>1330</v>
       </c>
       <c r="D81" s="23" t="s">
         <v>587</v>
@@ -8185,10 +8185,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="20" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B82" s="21" t="s">
         <v>1173</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>1174</v>
       </c>
       <c r="D82" s="23" t="s">
         <v>587</v>
@@ -8199,7 +8199,7 @@
         <v>867</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D83" s="23" t="s">
         <v>587</v>
@@ -8207,10 +8207,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="20" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B84" s="21" t="s">
         <v>1332</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>1333</v>
       </c>
       <c r="D84" s="23" t="s">
         <v>587</v>
@@ -8218,10 +8218,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="20" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D85" s="23" t="s">
         <v>587</v>
@@ -8229,10 +8229,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="20" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D86" s="23" t="s">
         <v>587</v>
@@ -8240,10 +8240,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="20" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B87" s="21" t="s">
         <v>1336</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>1337</v>
       </c>
       <c r="D87" s="23" t="s">
         <v>587</v>
@@ -8251,10 +8251,10 @@
     </row>
     <row r="88" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A88" s="20" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B88" s="21" t="s">
         <v>1338</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>1339</v>
       </c>
       <c r="D88" s="23" t="s">
         <v>587</v>
@@ -8262,10 +8262,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="20" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B89" s="21" t="s">
         <v>1340</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>1341</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>587</v>
@@ -8273,10 +8273,10 @@
     </row>
     <row r="90" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A90" s="20" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B90" s="21" t="s">
         <v>1342</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>1343</v>
       </c>
       <c r="D90" s="23" t="s">
         <v>587</v>
@@ -8284,10 +8284,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="20" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>587</v>
@@ -9069,7 +9069,7 @@
         <v>587</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>593</v>
@@ -9077,24 +9077,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="27" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B7" s="27">
         <v>0</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B8" s="27">
         <v>1</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
   </sheetData>
@@ -11126,10 +11126,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
+        <v>980</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>981</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>982</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="23" t="s">
@@ -12458,10 +12458,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="18" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>1345</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>1346</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="15" t="s">
@@ -14900,7 +14900,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="34.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" s="20" t="s">
         <v>611</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>790</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>587</v>
